--- a/Final Fabrication Package/BOM.xlsx
+++ b/Final Fabrication Package/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\Documents\.Inter_Capstone_Design\Final Fabrication Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4870B458-EC1C-4235-A2BF-F92C6B13E8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2157950E-74EE-460D-A495-58F32A3382FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Item</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>Drawing in Fabrication Package</t>
+  </si>
+  <si>
+    <t>PTFE-Coated Fiberglass Fabric Sheet, Mesh, 40" Wide | McMaster-Carr</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>*Need to select motorized option</t>
   </si>
 </sst>
 </file>
@@ -115,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +147,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,12 +164,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -161,10 +193,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -447,186 +485,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6328125" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="2"/>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>7.21</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>7.62</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>996</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>288</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5">
+        <v>34.33</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8">
+      <c r="D9" s="5"/>
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
+      <c r="D10" s="5"/>
+      <c r="E10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10">
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
+      <c r="D12" s="5"/>
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12">
+      <c r="D13" s="5"/>
+      <c r="E13" s="3">
         <v>1</v>
       </c>
+      <c r="F13" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -634,7 +722,10 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{9563F723-A513-46B3-A5C3-48F909832AC2}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{59DA5EDD-4019-41AA-B13B-E6AAD4088195}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{A71B04DB-8F46-4901-8283-609364E710A7}"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://www.mcmaster.com/87865K44/" xr:uid="{367BC631-6EF0-4851-8295-F516DA4599E9}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{F5D399F1-25E0-4568-8D17-062396CFEAAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId7"/>
 </worksheet>
 </file>